--- a/Diagram.xlsx
+++ b/Diagram.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Results</t>
   </si>
@@ -26,26 +26,80 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct answers </t>
+  </si>
+  <si>
+    <t>No wikpedia page</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong answers </t>
+  </si>
+  <si>
+    <t>Missing link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFF3F3F3"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,11 +108,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -168,16 +238,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -205,6 +275,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="6" max="6" width="15.86"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="C3" s="1" t="s">
@@ -244,6 +317,49 @@
         <v>344</v>
       </c>
     </row>
+    <row r="8">
+      <c r="C8">
+        <f>220/344</f>
+        <v>0.6395348837</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9">
+        <f>220/(99+220)</f>
+        <v>0.6896551724</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
